--- a/data_year/zb/公共管理、社会保障及其他/人民法院审理一审案件情况.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/人民法院审理一审案件情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,466 +468,269 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5356294</v>
+        <v>6999350</v>
       </c>
       <c r="C2" t="n">
-        <v>560432</v>
+        <v>779595</v>
       </c>
       <c r="D2" t="n">
-        <v>3412259</v>
-      </c>
-      <c r="E2" t="n">
-        <v>6976</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1290867</v>
-      </c>
+        <v>6090622</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>85760</v>
+        <v>129133</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5344934</v>
+        <v>7596116</v>
       </c>
       <c r="C3" t="n">
-        <v>628996</v>
+        <v>845714</v>
       </c>
       <c r="D3" t="n">
-        <v>3459025</v>
-      </c>
-      <c r="E3" t="n">
-        <v>6891</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1149101</v>
-      </c>
+        <v>6614049</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>100921</v>
+        <v>136353</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5132199</v>
+        <v>8442657</v>
       </c>
       <c r="C4" t="n">
-        <v>631348</v>
+        <v>996611</v>
       </c>
       <c r="D4" t="n">
-        <v>4420123</v>
+        <v>7316463</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>80728</v>
+        <v>129583</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5130760</v>
+        <v>8876733</v>
       </c>
       <c r="C5" t="n">
-        <v>632605</v>
+        <v>971567</v>
       </c>
       <c r="D5" t="n">
-        <v>4410236</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
+        <v>7781972</v>
+      </c>
+      <c r="E5" t="n">
+        <v>11224</v>
+      </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>87919</v>
+        <v>123194</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5072881</v>
+        <v>9489787</v>
       </c>
       <c r="C6" t="n">
-        <v>647541</v>
+        <v>1040457</v>
       </c>
       <c r="D6" t="n">
-        <v>4332727</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
+        <v>8307450</v>
+      </c>
+      <c r="E6" t="n">
+        <v>12174</v>
+      </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>92613</v>
+        <v>141880</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5161170</v>
+        <v>11444950</v>
       </c>
       <c r="C7" t="n">
-        <v>684897</v>
+        <v>1126748</v>
       </c>
       <c r="D7" t="n">
-        <v>4380095</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
+        <v>10097804</v>
+      </c>
+      <c r="E7" t="n">
+        <v>17546</v>
+      </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>96178</v>
+        <v>220398</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5183794</v>
+        <v>12088800</v>
       </c>
       <c r="C8" t="n">
-        <v>702445</v>
+        <v>1101191</v>
       </c>
       <c r="D8" t="n">
-        <v>4385732</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
+        <v>10762124</v>
+      </c>
+      <c r="E8" t="n">
+        <v>16336</v>
+      </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>95617</v>
+        <v>225485</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5550062</v>
+        <v>12907729</v>
       </c>
       <c r="C9" t="n">
-        <v>724112</v>
+        <v>1294377</v>
       </c>
       <c r="D9" t="n">
-        <v>4724440</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
+        <v>11373753</v>
+      </c>
+      <c r="E9" t="n">
+        <v>15367</v>
+      </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>101510</v>
+        <v>230432</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6288831</v>
+        <v>13920964</v>
       </c>
       <c r="C10" t="n">
-        <v>767842</v>
+        <v>1203055</v>
       </c>
       <c r="D10" t="n">
-        <v>5412591</v>
-      </c>
-      <c r="E10" t="inlineStr"/>
+        <v>12449685</v>
+      </c>
+      <c r="E10" t="n">
+        <v>15784</v>
+      </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>108398</v>
+        <v>256656</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6688963</v>
+        <v>15439600</v>
       </c>
       <c r="C11" t="n">
-        <v>768507</v>
+        <v>1293911</v>
       </c>
       <c r="D11" t="n">
-        <v>5800144</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
+        <v>13852052</v>
+      </c>
+      <c r="E11" t="n">
+        <v>15249</v>
+      </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>120312</v>
+        <v>279574</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6999350</v>
+        <v>14518468</v>
       </c>
       <c r="C12" t="n">
-        <v>779595</v>
+        <v>1107610</v>
       </c>
       <c r="D12" t="n">
-        <v>6090622</v>
-      </c>
-      <c r="E12" t="inlineStr"/>
+        <v>13136436</v>
+      </c>
+      <c r="E12" t="n">
+        <v>14049</v>
+      </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>129133</v>
+        <v>260220</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7596116</v>
+        <v>18226928</v>
       </c>
       <c r="C13" t="n">
-        <v>845714</v>
+        <v>1277197</v>
       </c>
       <c r="D13" t="n">
-        <v>6614049</v>
+        <v>16612893</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>136353</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>8442657</v>
-      </c>
-      <c r="C14" t="n">
-        <v>996611</v>
-      </c>
-      <c r="D14" t="n">
-        <v>7316463</v>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="n">
-        <v>129583</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>8876733</v>
-      </c>
-      <c r="C15" t="n">
-        <v>971567</v>
-      </c>
-      <c r="D15" t="n">
-        <v>7781972</v>
-      </c>
-      <c r="E15" t="n">
-        <v>11224</v>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="n">
-        <v>123194</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>9489787</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1040457</v>
-      </c>
-      <c r="D16" t="n">
-        <v>8307450</v>
-      </c>
-      <c r="E16" t="n">
-        <v>12174</v>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="n">
-        <v>141880</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>11444950</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1126748</v>
-      </c>
-      <c r="D17" t="n">
-        <v>10097804</v>
-      </c>
-      <c r="E17" t="n">
-        <v>17546</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="n">
-        <v>220398</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>12088800</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1101191</v>
-      </c>
-      <c r="D18" t="n">
-        <v>10762124</v>
-      </c>
-      <c r="E18" t="n">
-        <v>16336</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="n">
-        <v>225485</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>12907729</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1294377</v>
-      </c>
-      <c r="D19" t="n">
-        <v>11373753</v>
-      </c>
-      <c r="E19" t="n">
-        <v>15367</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="n">
-        <v>230432</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>13920964</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1203055</v>
-      </c>
-      <c r="D20" t="n">
-        <v>12449685</v>
-      </c>
-      <c r="E20" t="n">
-        <v>15784</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="n">
-        <v>256656</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>15439600</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1293911</v>
-      </c>
-      <c r="D21" t="n">
-        <v>13852052</v>
-      </c>
-      <c r="E21" t="n">
-        <v>15249</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="n">
-        <v>279574</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>14518468</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1107610</v>
-      </c>
-      <c r="D22" t="n">
-        <v>13136436</v>
-      </c>
-      <c r="E22" t="n">
-        <v>14049</v>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="n">
-        <v>260220</v>
+        <v>319977</v>
       </c>
     </row>
   </sheetData>
